--- a/data/paolacoding_irr_cielo.xlsx
+++ b/data/paolacoding_irr_cielo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahlunkenheimer/Documents/GitHub/cielo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DBC56C-BFAE-4F4D-B56D-7412BBDEE01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21DEB34-0049-3E4D-A782-99824F31E93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{468DB1F4-6129-6743-A06A-E2B89527A38C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16540" windowHeight="18000" xr2:uid="{468DB1F4-6129-6743-A06A-E2B89527A38C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -402,15 +402,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -729,19 +725,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DB58A7-A5CF-354C-A3C2-6B3646E0CFC5}">
   <dimension ref="A1:EI146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CC1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="DS1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="EA17" sqref="EA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="9"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1250,7 +1245,7 @@
       </c>
     </row>
     <row r="5" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="2">
         <v>121</v>
       </c>
       <c r="B5" s="1">
@@ -1669,7 +1664,7 @@
       </c>
     </row>
     <row r="6" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="2">
         <v>123</v>
       </c>
       <c r="B6" s="1">
@@ -2088,7 +2083,7 @@
       </c>
     </row>
     <row r="7" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="A7" s="2">
         <v>126</v>
       </c>
       <c r="B7" s="1">
@@ -2507,7 +2502,7 @@
       </c>
     </row>
     <row r="8" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="A8" s="2">
         <v>127</v>
       </c>
       <c r="B8" s="1">
@@ -2926,7 +2921,7 @@
       </c>
     </row>
     <row r="9" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="A9" s="2">
         <v>128</v>
       </c>
       <c r="B9" s="1">
@@ -3345,7 +3340,7 @@
       </c>
     </row>
     <row r="10" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="A10" s="2">
         <v>130</v>
       </c>
       <c r="B10" s="1">
@@ -3764,7 +3759,7 @@
       </c>
     </row>
     <row r="11" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="A11" s="2">
         <v>132</v>
       </c>
       <c r="B11" s="1">
@@ -4183,7 +4178,7 @@
       </c>
     </row>
     <row r="12" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="A12" s="2">
         <v>134</v>
       </c>
       <c r="B12" s="1">
@@ -4602,7 +4597,7 @@
       </c>
     </row>
     <row r="13" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="A13" s="2">
         <v>135</v>
       </c>
       <c r="B13" s="1">
@@ -5021,7 +5016,7 @@
       </c>
     </row>
     <row r="14" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B14" s="1">
@@ -5440,7 +5435,7 @@
       </c>
     </row>
     <row r="15" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="1">
@@ -5859,7 +5854,7 @@
       </c>
     </row>
     <row r="16" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B16" s="1">
@@ -6278,7 +6273,7 @@
       </c>
     </row>
     <row r="17" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B17" s="1">
@@ -6697,7 +6692,7 @@
       </c>
     </row>
     <row r="18" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="A18" s="2">
         <v>138</v>
       </c>
       <c r="B18" s="1">
@@ -7116,7 +7111,7 @@
       </c>
     </row>
     <row r="19" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="A19" s="2">
         <v>140</v>
       </c>
       <c r="B19" s="1">
@@ -7535,7 +7530,7 @@
       </c>
     </row>
     <row r="20" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="A20" s="2">
         <v>141</v>
       </c>
       <c r="B20" s="1">
@@ -7954,7 +7949,7 @@
       </c>
     </row>
     <row r="21" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="1">
@@ -8373,7 +8368,7 @@
       </c>
     </row>
     <row r="22" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B22" s="1">
@@ -8792,7 +8787,7 @@
       </c>
     </row>
     <row r="23" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+      <c r="A23" s="2">
         <v>144</v>
       </c>
       <c r="B23" s="4">
@@ -9208,7 +9203,7 @@
       </c>
     </row>
     <row r="24" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="A24" s="2">
         <v>145</v>
       </c>
       <c r="B24" s="4">
@@ -9627,7 +9622,7 @@
       </c>
     </row>
     <row r="25" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="A25" s="2">
         <v>147</v>
       </c>
       <c r="B25" s="4">
@@ -10046,7 +10041,7 @@
       </c>
     </row>
     <row r="26" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="2">
         <v>146</v>
       </c>
       <c r="B26" s="4">
@@ -10465,7 +10460,7 @@
       </c>
     </row>
     <row r="27" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="2">
         <v>148</v>
       </c>
       <c r="B27" s="4">
@@ -10884,7 +10879,7 @@
       </c>
     </row>
     <row r="28" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+      <c r="A28" s="2">
         <v>149</v>
       </c>
       <c r="B28" s="4">
@@ -11303,7 +11298,7 @@
       </c>
     </row>
     <row r="29" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
+      <c r="A29" s="2">
         <v>151</v>
       </c>
       <c r="B29" s="4">
@@ -11722,7 +11717,7 @@
       </c>
     </row>
     <row r="30" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
+      <c r="A30" s="2">
         <v>154</v>
       </c>
       <c r="B30" s="4">
@@ -12141,7 +12136,7 @@
       </c>
     </row>
     <row r="31" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
+      <c r="A31" s="2">
         <v>156</v>
       </c>
       <c r="B31" s="4">
@@ -12560,7 +12555,7 @@
       </c>
     </row>
     <row r="32" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
+      <c r="A32" s="2">
         <v>159</v>
       </c>
       <c r="B32" s="4">
@@ -12979,7 +12974,7 @@
       </c>
     </row>
     <row r="33" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
+      <c r="A33" s="2">
         <v>161</v>
       </c>
       <c r="B33" s="4">
@@ -13398,7 +13393,7 @@
       </c>
     </row>
     <row r="34" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
+      <c r="A34" s="2">
         <v>160</v>
       </c>
       <c r="B34" s="4">
@@ -13817,7 +13812,7 @@
       </c>
     </row>
     <row r="35" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
+      <c r="A35" s="2">
         <v>162</v>
       </c>
       <c r="B35" s="4">
@@ -14233,7 +14228,7 @@
       </c>
     </row>
     <row r="36" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
+      <c r="A36" s="2">
         <v>164</v>
       </c>
       <c r="B36" s="4">
@@ -14652,7 +14647,7 @@
       </c>
     </row>
     <row r="37" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
+      <c r="A37" s="2">
         <v>165</v>
       </c>
       <c r="B37" s="4">
@@ -15071,7 +15066,7 @@
       </c>
     </row>
     <row r="38" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A38" s="10">
+      <c r="A38" s="2">
         <v>169</v>
       </c>
       <c r="B38" s="3">
@@ -15490,7 +15485,7 @@
       </c>
     </row>
     <row r="39" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A39" s="10">
+      <c r="A39" s="2">
         <v>170</v>
       </c>
       <c r="B39" s="3">
@@ -15909,7 +15904,7 @@
       </c>
     </row>
     <row r="40" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A40" s="10">
+      <c r="A40" s="2">
         <v>171</v>
       </c>
       <c r="B40" s="3">
@@ -16328,7 +16323,7 @@
       </c>
     </row>
     <row r="41" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A41" s="10">
+      <c r="A41" s="2">
         <v>172</v>
       </c>
       <c r="B41" s="3">
@@ -16747,7 +16742,7 @@
       </c>
     </row>
     <row r="42" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A42" s="10">
+      <c r="A42" s="2">
         <v>173</v>
       </c>
       <c r="B42" s="3">
@@ -17166,7 +17161,7 @@
       </c>
     </row>
     <row r="43" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A43" s="10">
+      <c r="A43" s="2">
         <v>174</v>
       </c>
       <c r="B43" s="3">
@@ -17585,7 +17580,7 @@
       </c>
     </row>
     <row r="44" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A44" s="10">
+      <c r="A44" s="2">
         <v>151</v>
       </c>
       <c r="B44" s="3">
@@ -18004,7 +17999,7 @@
       </c>
     </row>
     <row r="45" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
+      <c r="A45" s="2">
         <v>175</v>
       </c>
       <c r="B45" s="3">
@@ -18423,7 +18418,7 @@
       </c>
     </row>
     <row r="46" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A46" s="10">
+      <c r="A46" s="2">
         <v>177</v>
       </c>
       <c r="B46" s="3">
@@ -18842,7 +18837,7 @@
       </c>
     </row>
     <row r="47" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A47" s="10">
+      <c r="A47" s="2">
         <v>176</v>
       </c>
       <c r="B47" s="3">
@@ -19261,7 +19256,7 @@
       </c>
     </row>
     <row r="48" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A48" s="10">
+      <c r="A48" s="2">
         <v>178</v>
       </c>
       <c r="B48" s="3">
@@ -19680,7 +19675,7 @@
       </c>
     </row>
     <row r="49" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A49" s="10">
+      <c r="A49" s="2">
         <v>189</v>
       </c>
       <c r="B49" s="3">
@@ -20099,7 +20094,7 @@
       </c>
     </row>
     <row r="50" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A50" s="10">
+      <c r="A50" s="2">
         <v>180</v>
       </c>
       <c r="B50" s="3">
@@ -20518,7 +20513,7 @@
       </c>
     </row>
     <row r="51" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A51" s="10">
+      <c r="A51" s="2">
         <v>181</v>
       </c>
       <c r="B51" s="3">
@@ -20937,7 +20932,7 @@
       </c>
     </row>
     <row r="52" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A52" s="10">
+      <c r="A52" s="2">
         <v>182</v>
       </c>
       <c r="B52" s="3">
@@ -21356,7 +21351,7 @@
       </c>
     </row>
     <row r="53" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A53" s="10">
+      <c r="A53" s="2">
         <v>186</v>
       </c>
       <c r="B53" s="3">
@@ -21775,7 +21770,7 @@
       </c>
     </row>
     <row r="54" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A54" s="10">
+      <c r="A54" s="2">
         <v>190</v>
       </c>
       <c r="B54" s="3">
@@ -22194,7 +22189,7 @@
       </c>
     </row>
     <row r="55" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A55" s="10">
+      <c r="A55" s="2">
         <v>187</v>
       </c>
       <c r="B55" s="3">
@@ -22613,7 +22608,7 @@
       </c>
     </row>
     <row r="56" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A56" s="10">
+      <c r="A56" s="2">
         <v>193</v>
       </c>
       <c r="B56" s="3">
@@ -23032,7 +23027,7 @@
       </c>
     </row>
     <row r="57" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A57" s="10">
+      <c r="A57" s="2">
         <v>194</v>
       </c>
       <c r="B57" s="3">
@@ -23451,7 +23446,7 @@
       </c>
     </row>
     <row r="58" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A58" s="10">
+      <c r="A58" s="2">
         <v>197</v>
       </c>
       <c r="B58" s="3">
@@ -23870,7 +23865,7 @@
       </c>
     </row>
     <row r="59" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A59" s="10">
+      <c r="A59" s="2">
         <v>199</v>
       </c>
       <c r="B59" s="3">
@@ -24289,7 +24284,7 @@
       </c>
     </row>
     <row r="60" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A60" s="10">
+      <c r="A60" s="2">
         <v>199</v>
       </c>
       <c r="B60" s="3">
@@ -24708,7 +24703,7 @@
       </c>
     </row>
     <row r="61" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A61" s="10">
+      <c r="A61" s="2">
         <v>200</v>
       </c>
       <c r="B61" s="3">
@@ -25127,7 +25122,7 @@
       </c>
     </row>
     <row r="62" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A62" s="10">
+      <c r="A62" s="2">
         <v>201</v>
       </c>
       <c r="B62" s="3">
@@ -25546,7 +25541,7 @@
       </c>
     </row>
     <row r="63" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A63" s="10">
+      <c r="A63" s="2">
         <v>202</v>
       </c>
       <c r="B63" s="3">
@@ -25965,7 +25960,7 @@
       </c>
     </row>
     <row r="64" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A64" s="10">
+      <c r="A64" s="2">
         <v>204</v>
       </c>
       <c r="B64" s="3">
@@ -26384,7 +26379,7 @@
       </c>
     </row>
     <row r="65" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A65" s="10">
+      <c r="A65" s="2">
         <v>205</v>
       </c>
       <c r="B65" s="3">
@@ -26803,7 +26798,7 @@
       </c>
     </row>
     <row r="66" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A66" s="10">
+      <c r="A66" s="2">
         <v>208</v>
       </c>
       <c r="B66" s="3">
@@ -27222,7 +27217,7 @@
       </c>
     </row>
     <row r="67" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A67" s="11">
+      <c r="A67" s="9">
         <v>209</v>
       </c>
       <c r="B67" s="3">
@@ -27641,7 +27636,7 @@
       </c>
     </row>
     <row r="68" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A68" s="10">
+      <c r="A68" s="2">
         <v>210</v>
       </c>
       <c r="B68" s="3">
@@ -28060,7 +28055,7 @@
       </c>
     </row>
     <row r="69" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A69" s="10">
+      <c r="A69" s="2">
         <v>211</v>
       </c>
       <c r="B69" s="3">
@@ -28479,7 +28474,7 @@
       </c>
     </row>
     <row r="70" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A70" s="10">
+      <c r="A70" s="2">
         <v>212</v>
       </c>
       <c r="B70" s="3">
@@ -28898,7 +28893,7 @@
       </c>
     </row>
     <row r="71" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A71" s="10">
+      <c r="A71" s="2">
         <v>213</v>
       </c>
       <c r="B71" s="3">
@@ -29317,7 +29312,7 @@
       </c>
     </row>
     <row r="72" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A72" s="10">
+      <c r="A72" s="2">
         <v>215</v>
       </c>
       <c r="B72" s="3">
@@ -29736,7 +29731,7 @@
       </c>
     </row>
     <row r="73" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A73" s="10">
+      <c r="A73" s="2">
         <v>216</v>
       </c>
       <c r="B73" s="3">
@@ -30155,7 +30150,7 @@
       </c>
     </row>
     <row r="74" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A74" s="10">
+      <c r="A74" s="2">
         <v>218</v>
       </c>
       <c r="B74" s="3">
@@ -30574,7 +30569,7 @@
       </c>
     </row>
     <row r="75" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A75" s="10">
+      <c r="A75" s="2">
         <v>220</v>
       </c>
       <c r="B75" s="3">
@@ -30993,7 +30988,7 @@
       </c>
     </row>
     <row r="76" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A76" s="10">
+      <c r="A76" s="2">
         <v>221</v>
       </c>
       <c r="B76" s="3">
@@ -31412,7 +31407,7 @@
       </c>
     </row>
     <row r="77" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A77" s="10">
+      <c r="A77" s="2">
         <v>222</v>
       </c>
       <c r="B77" s="3">
@@ -31831,7 +31826,7 @@
       </c>
     </row>
     <row r="78" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A78" s="10">
+      <c r="A78" s="2">
         <v>223</v>
       </c>
       <c r="B78" s="3">
@@ -32250,7 +32245,7 @@
       </c>
     </row>
     <row r="79" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A79" s="10">
+      <c r="A79" s="2">
         <v>224</v>
       </c>
       <c r="B79" s="3">
@@ -32669,7 +32664,7 @@
       </c>
     </row>
     <row r="80" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A80" s="10">
+      <c r="A80" s="2">
         <v>225</v>
       </c>
       <c r="B80" s="3">
@@ -33088,7 +33083,7 @@
       </c>
     </row>
     <row r="81" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A81" s="10">
+      <c r="A81" s="2">
         <v>226</v>
       </c>
       <c r="B81" s="3">
@@ -33507,7 +33502,7 @@
       </c>
     </row>
     <row r="82" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A82" s="10">
+      <c r="A82" s="2">
         <v>227</v>
       </c>
       <c r="B82" s="3">
@@ -33926,7 +33921,7 @@
       </c>
     </row>
     <row r="83" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A83" s="10">
+      <c r="A83" s="2">
         <v>228</v>
       </c>
       <c r="B83" s="3">
@@ -34345,7 +34340,7 @@
       </c>
     </row>
     <row r="84" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A84" s="10">
+      <c r="A84" s="2">
         <v>229</v>
       </c>
       <c r="B84" s="3">
@@ -34764,7 +34759,7 @@
       </c>
     </row>
     <row r="85" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A85" s="10">
+      <c r="A85" s="2">
         <v>232</v>
       </c>
       <c r="B85" s="3">
@@ -35183,7 +35178,7 @@
       </c>
     </row>
     <row r="86" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A86" s="10">
+      <c r="A86" s="2">
         <v>233</v>
       </c>
       <c r="B86" s="3">
@@ -35602,7 +35597,7 @@
       </c>
     </row>
     <row r="87" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A87" s="10">
+      <c r="A87" s="2">
         <v>235</v>
       </c>
       <c r="B87" s="3">
@@ -36021,7 +36016,7 @@
       </c>
     </row>
     <row r="88" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A88" s="10">
+      <c r="A88" s="2">
         <v>236</v>
       </c>
       <c r="B88" s="3">
@@ -36440,7 +36435,7 @@
       </c>
     </row>
     <row r="89" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A89" s="10">
+      <c r="A89" s="2">
         <v>179</v>
       </c>
       <c r="B89" s="3">
@@ -36859,7 +36854,7 @@
       </c>
     </row>
     <row r="90" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A90" s="10">
+      <c r="A90" s="2">
         <v>238</v>
       </c>
       <c r="B90" s="3">
@@ -37278,7 +37273,7 @@
       </c>
     </row>
     <row r="91" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A91" s="10">
+      <c r="A91" s="2">
         <v>241</v>
       </c>
       <c r="B91" s="3">
@@ -37697,7 +37692,7 @@
       </c>
     </row>
     <row r="92" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A92" s="10">
+      <c r="A92" s="2">
         <v>242</v>
       </c>
       <c r="B92" s="3">
@@ -38116,7 +38111,7 @@
       </c>
     </row>
     <row r="93" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A93" s="10">
+      <c r="A93" s="2">
         <v>245</v>
       </c>
       <c r="B93" s="3">
@@ -38535,7 +38530,7 @@
       </c>
     </row>
     <row r="94" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A94" s="10">
+      <c r="A94" s="2">
         <v>246</v>
       </c>
       <c r="B94" s="3">
@@ -38954,7 +38949,7 @@
       </c>
     </row>
     <row r="95" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A95" s="10">
+      <c r="A95" s="2">
         <v>247</v>
       </c>
       <c r="B95" s="3">
@@ -39373,7 +39368,7 @@
       </c>
     </row>
     <row r="96" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A96" s="10">
+      <c r="A96" s="2">
         <v>248</v>
       </c>
       <c r="B96" s="3">
@@ -39792,7 +39787,7 @@
       </c>
     </row>
     <row r="97" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A97" s="10">
+      <c r="A97" s="2">
         <v>249</v>
       </c>
       <c r="B97" s="3">
@@ -40211,7 +40206,7 @@
       </c>
     </row>
     <row r="98" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A98" s="10">
+      <c r="A98" s="2">
         <v>250</v>
       </c>
       <c r="B98" s="3">
@@ -40630,7 +40625,7 @@
       </c>
     </row>
     <row r="99" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A99" s="10">
+      <c r="A99" s="2">
         <v>251</v>
       </c>
       <c r="B99" s="3">
@@ -41049,7 +41044,7 @@
       </c>
     </row>
     <row r="100" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A100" s="10"/>
+      <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="H100" s="3"/>
@@ -41152,7 +41147,7 @@
       <c r="EI100" s="3"/>
     </row>
     <row r="101" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A101" s="10"/>
+      <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="H101" s="3"/>
@@ -41271,7 +41266,7 @@
       <c r="EI101" s="3"/>
     </row>
     <row r="102" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A102" s="10"/>
+      <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="H102" s="3"/>
@@ -41368,7 +41363,7 @@
       <c r="EI102" s="3"/>
     </row>
     <row r="103" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A103" s="10"/>
+      <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="H103" s="3"/>
@@ -41490,7 +41485,7 @@
       <c r="EI103" s="3"/>
     </row>
     <row r="104" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A104" s="10"/>
+      <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="H104" s="3"/>
@@ -41583,7 +41578,7 @@
       <c r="EI104" s="3"/>
     </row>
     <row r="105" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A105" s="10"/>
+      <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="H105" s="3"/>
@@ -41704,7 +41699,7 @@
       <c r="EI105" s="3"/>
     </row>
     <row r="106" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A106" s="10"/>
+      <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="H106" s="3"/>
@@ -41796,7 +41791,7 @@
       <c r="EI106" s="3"/>
     </row>
     <row r="107" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A107" s="10"/>
+      <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="H107" s="3"/>
@@ -41906,7 +41901,7 @@
       <c r="EI107" s="3"/>
     </row>
     <row r="108" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A108" s="10"/>
+      <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="H108" s="3"/>
@@ -41985,7 +41980,7 @@
       <c r="EI108" s="3"/>
     </row>
     <row r="109" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A109" s="10"/>
+      <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="H109" s="3"/>
@@ -42119,7 +42114,7 @@
       <c r="EI109" s="3"/>
     </row>
     <row r="110" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A110" s="10"/>
+      <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="H110" s="3"/>
@@ -42201,7 +42196,7 @@
       <c r="EI110" s="3"/>
     </row>
     <row r="111" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A111" s="10"/>
+      <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="H111" s="3"/>
@@ -42321,7 +42316,7 @@
       <c r="EI111" s="3"/>
     </row>
     <row r="112" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A112" s="10"/>
+      <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="H112" s="3"/>
@@ -42404,7 +42399,7 @@
       <c r="EI112" s="3"/>
     </row>
     <row r="113" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A113" s="10"/>
+      <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="H113" s="3"/>
@@ -42532,7 +42527,7 @@
       <c r="EI113" s="3"/>
     </row>
     <row r="114" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A114" s="10"/>
+      <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="H114" s="3"/>
@@ -42560,7 +42555,7 @@
       <c r="EG114" s="3"/>
     </row>
     <row r="115" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A115" s="10"/>
+      <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="H115" s="3"/>
@@ -42646,7 +42641,7 @@
       <c r="EI115" s="3"/>
     </row>
     <row r="116" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A116" s="10"/>
+      <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="H116" s="3"/>
@@ -42737,7 +42732,7 @@
       <c r="EI116" s="3"/>
     </row>
     <row r="117" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A117" s="10"/>
+      <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="H117" s="3"/>
@@ -42820,7 +42815,7 @@
       <c r="EI117" s="3"/>
     </row>
     <row r="118" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A118" s="10"/>
+      <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="H118" s="3"/>
@@ -42901,7 +42896,7 @@
       <c r="EI118" s="3"/>
     </row>
     <row r="119" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A119" s="10"/>
+      <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="H119" s="3"/>
@@ -42985,7 +42980,7 @@
       <c r="EI119" s="3"/>
     </row>
     <row r="120" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A120" s="10"/>
+      <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="H120" s="3"/>
@@ -43069,7 +43064,7 @@
       <c r="EI120" s="3"/>
     </row>
     <row r="121" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A121" s="10"/>
+      <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="H121" s="3"/>
@@ -43160,7 +43155,7 @@
       <c r="EI121" s="3"/>
     </row>
     <row r="122" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A122" s="10"/>
+      <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="H122" s="3"/>
@@ -43252,7 +43247,7 @@
       <c r="EI122" s="3"/>
     </row>
     <row r="123" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A123" s="10"/>
+      <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="H123" s="3"/>
@@ -43337,7 +43332,7 @@
       <c r="EI123" s="3"/>
     </row>
     <row r="124" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A124" s="10"/>
+      <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="H124" s="3"/>
@@ -43420,7 +43415,7 @@
       <c r="EI124" s="3"/>
     </row>
     <row r="125" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A125" s="10"/>
+      <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="H125" s="3"/>
@@ -43506,7 +43501,7 @@
       <c r="EI125" s="3"/>
     </row>
     <row r="126" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A126" s="10"/>
+      <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="H126" s="3"/>
@@ -43604,7 +43599,7 @@
       <c r="EI126" s="3"/>
     </row>
     <row r="127" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A127" s="10"/>
+      <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="H127" s="3"/>
@@ -43689,7 +43684,7 @@
       <c r="EI127" s="3"/>
     </row>
     <row r="128" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A128" s="10"/>
+      <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="H128" s="3"/>
@@ -43775,7 +43770,7 @@
       <c r="EI128" s="3"/>
     </row>
     <row r="129" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A129" s="10"/>
+      <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="H129" s="3"/>
@@ -43860,7 +43855,7 @@
       <c r="EI129" s="3"/>
     </row>
     <row r="130" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A130" s="10"/>
+      <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="H130" s="3"/>
@@ -43945,7 +43940,7 @@
       <c r="EI130" s="3"/>
     </row>
     <row r="131" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A131" s="10"/>
+      <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="H131" s="3"/>
@@ -44045,7 +44040,7 @@
       <c r="EI131" s="3"/>
     </row>
     <row r="132" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A132" s="10"/>
+      <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="H132" s="3"/>
@@ -44130,7 +44125,7 @@
       <c r="EI132" s="3"/>
     </row>
     <row r="133" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A133" s="10"/>
+      <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="H133" s="3"/>
@@ -44216,7 +44211,7 @@
       <c r="EI133" s="3"/>
     </row>
     <row r="134" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A134" s="10"/>
+      <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="H134" s="3"/>
@@ -44313,7 +44308,7 @@
       <c r="EI134" s="3"/>
     </row>
     <row r="135" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A135" s="10"/>
+      <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="H135" s="3"/>
@@ -44407,7 +44402,7 @@
       <c r="EI135" s="3"/>
     </row>
     <row r="136" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A136" s="10"/>
+      <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="H136" s="3"/>
@@ -44501,7 +44496,7 @@
       <c r="EI136" s="3"/>
     </row>
     <row r="137" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A137" s="10"/>
+      <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="H137" s="3"/>
@@ -44595,7 +44590,7 @@
       <c r="EI137" s="3"/>
     </row>
     <row r="138" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A138" s="12"/>
+      <c r="A138" s="10"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="O138" s="3"/>
@@ -44680,7 +44675,7 @@
       <c r="EI138" s="3"/>
     </row>
     <row r="139" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A139" s="10"/>
+      <c r="A139" s="2"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="O139" s="3"/>
@@ -44757,7 +44752,7 @@
       <c r="EI139" s="3"/>
     </row>
     <row r="140" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A140" s="10"/>
+      <c r="A140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -44896,7 +44891,7 @@
       <c r="EI140" s="3"/>
     </row>
     <row r="141" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A141" s="10"/>
+      <c r="A141" s="2"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="V141" s="3"/>
@@ -44975,7 +44970,7 @@
       <c r="EI141" s="3"/>
     </row>
     <row r="142" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A142" s="10"/>
+      <c r="A142" s="2"/>
       <c r="H142" s="3"/>
       <c r="O142" s="3"/>
       <c r="V142" s="3"/>
@@ -45048,7 +45043,7 @@
       <c r="EI142" s="3"/>
     </row>
     <row r="143" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A143" s="10"/>
+      <c r="A143" s="2"/>
       <c r="I143" s="3"/>
       <c r="O143" s="3"/>
       <c r="V143" s="3"/>
@@ -45129,7 +45124,7 @@
       <c r="EI143" s="3"/>
     </row>
     <row r="144" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A144" s="10"/>
+      <c r="A144" s="2"/>
       <c r="I144" s="3"/>
       <c r="O144" s="3"/>
       <c r="V144" s="3"/>
@@ -45217,7 +45212,7 @@
       <c r="EI144" s="3"/>
     </row>
     <row r="145" spans="1:139" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="10"/>
+      <c r="A145" s="2"/>
       <c r="O145" s="3"/>
       <c r="V145" s="3"/>
       <c r="AS145" s="3"/>
